--- a/lab3/lab3.xlsx
+++ b/lab3/lab3.xlsx
@@ -243,7 +243,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -272,10 +272,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,11 +280,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,10 +309,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,14 +385,14 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -449,293 +441,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="156082"/>
-            </a:solidFill>
-            <a:ln w="19080">
-              <a:solidFill>
-                <a:srgbClr val="156082"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="156082"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Aptos Narrow"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$37:$O$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$P$37:$P$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="81078610"/>
-        <c:axId val="28157537"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="81078610"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="28157537"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="28157537"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="81078610"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>Заглавие диаграммы</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
+              <a:srgbClr val="55308d"/>
             </a:solidFill>
             <a:ln w="25560">
               <a:noFill/>
@@ -746,7 +452,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="99ccff"/>
+                <a:srgbClr val="55308d"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
@@ -757,7 +463,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="55308d"/>
                 </a:solidFill>
               </c:spPr>
             </c:marker>
@@ -769,7 +475,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="55308d"/>
                 </a:solidFill>
               </c:spPr>
             </c:marker>
@@ -781,7 +487,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="55308d"/>
                 </a:solidFill>
               </c:spPr>
             </c:marker>
@@ -793,7 +499,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="55308d"/>
                 </a:solidFill>
               </c:spPr>
             </c:marker>
@@ -805,187 +511,7 @@
               <c:size val="5"/>
               <c:spPr>
                 <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="10"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="11"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="15"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="16"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="17"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="18"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="19"/>
-            <c:marker>
-              <c:symbol val="square"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="99ccff"/>
+                  <a:srgbClr val="55308d"/>
                 </a:solidFill>
               </c:spPr>
             </c:marker>
@@ -1111,366 +637,6 @@
               <c:showPercent val="0"/>
               <c:separator>; </c:separator>
             </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="8"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="10"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="11"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="12"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="13"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="14"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="15"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="16"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="17"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="18"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="19"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Aptos Narrow"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
@@ -1496,10 +662,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$28:$E$47</c:f>
+              <c:f>Sheet1!$E$28:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -1514,61 +680,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$28:$F$47</c:f>
+              <c:f>Sheet1!$F$28:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -1583,51 +704,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1637,6 +713,390 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff0000"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$33:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="156082"/>
+            </a:solidFill>
+            <a:ln w="19080">
+              <a:solidFill>
+                <a:srgbClr val="156082"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="156082"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Narrow"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$37:$O$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$37:$P$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="75588452"/>
+        <c:axId val="78362509"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="75588452"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78362509"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78362509"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9360">
+              <a:solidFill>
+                <a:srgbClr val="d9d9d9"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="bfbfbf"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75588452"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:solidFill>
+        <a:srgbClr val="d9d9d9"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow"/>
+              </a:rPr>
+              <a:t>Заглавие диаграммы</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="156082"/>
@@ -1724,42 +1184,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.8</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-11</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6</c:v>
+                  <c:v>-7.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8</c:v>
+                  <c:v>-2.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8</c:v>
+                  <c:v>-2.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9402852"/>
-        <c:axId val="46389532"/>
+        <c:axId val="42612219"/>
+        <c:axId val="21384233"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9402852"/>
+        <c:axId val="42612219"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,12 +1261,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46389532"/>
+        <c:crossAx val="21384233"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46389532"/>
+        <c:axId val="21384233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,14 +1308,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9402852"/>
+        <c:crossAx val="42612219"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1882,16 +1340,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>454680</xdr:colOff>
+      <xdr:colOff>454320</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1899,8 +1357,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14284800" y="3079080"/>
-        <a:ext cx="5546160" cy="3263400"/>
+        <a:off x="12885120" y="2251080"/>
+        <a:ext cx="6957360" cy="4091040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1919,9 +1377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>691200</xdr:colOff>
+      <xdr:colOff>690840</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1929,8 +1387,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20640960" y="4179240"/>
-        <a:ext cx="5545440" cy="2733120"/>
+        <a:off x="20653560" y="4179240"/>
+        <a:ext cx="5548320" cy="2732760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1938,6 +1396,43 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>106920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Изображение 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2253960" y="117000"/>
+          <a:ext cx="4995720" cy="3534480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1951,10 +1446,10 @@
   <dimension ref="C27:P77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T46" activeCellId="0" sqref="T46"/>
+      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
@@ -2034,13 +1529,13 @@
       <c r="F29" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G29" s="7" t="n">
+      <c r="G29" s="6" t="n">
         <v>-0.4</v>
       </c>
-      <c r="H29" s="7" t="n">
+      <c r="H29" s="6" t="n">
         <v>-0.4</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="6" t="n">
         <v>-0.1</v>
       </c>
       <c r="J29" s="6" t="n">
@@ -2050,7 +1545,7 @@
       <c r="K29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="L29" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2067,13 +1562,13 @@
       <c r="F30" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="G30" s="7" t="n">
+      <c r="G30" s="6" t="n">
         <v>-0.4</v>
       </c>
-      <c r="H30" s="7" t="n">
+      <c r="H30" s="6" t="n">
         <v>1.1</v>
       </c>
-      <c r="I30" s="7" t="n">
+      <c r="I30" s="6" t="n">
         <v>-0.4</v>
       </c>
       <c r="J30" s="6" t="n">
@@ -2083,7 +1578,7 @@
       <c r="K30" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2100,13 +1595,13 @@
       <c r="F31" s="6" t="n">
         <v>1.7</v>
       </c>
-      <c r="G31" s="7" t="n">
+      <c r="G31" s="6" t="n">
         <v>-1.9</v>
       </c>
-      <c r="H31" s="7" t="n">
+      <c r="H31" s="6" t="n">
         <v>-0.4</v>
       </c>
-      <c r="I31" s="7" t="n">
+      <c r="I31" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="J31" s="6" t="n">
@@ -2116,7 +1611,7 @@
       <c r="K31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="L31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2133,13 +1628,13 @@
       <c r="F32" s="6" t="n">
         <v>0.7</v>
       </c>
-      <c r="G32" s="7" t="n">
+      <c r="G32" s="6" t="n">
         <v>-2.9</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="H32" s="6" t="n">
         <v>-0.9</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="6" t="n">
         <v>-1.1</v>
       </c>
       <c r="J32" s="6" t="n">
@@ -2149,7 +1644,7 @@
       <c r="K32" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L32" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2166,23 +1661,23 @@
       <c r="F33" s="6" t="n">
         <v>-1.6</v>
       </c>
-      <c r="G33" s="7" t="n">
+      <c r="G33" s="6" t="n">
         <v>-2.9</v>
       </c>
-      <c r="H33" s="7" t="n">
+      <c r="H33" s="6" t="n">
         <v>-0.9</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="6" t="n">
         <v>-1.1</v>
       </c>
       <c r="J33" s="6" t="n">
         <f aca="false">G33+H33*E33+I33*F33</f>
         <v>-0.149999999999999</v>
       </c>
-      <c r="K33" s="7" t="n">
+      <c r="K33" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="L33" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2196,16 +1691,16 @@
       <c r="E34" s="6" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F34" s="9" t="n">
+      <c r="F34" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="6" t="n">
         <v>1.6</v>
       </c>
-      <c r="H34" s="7" t="n">
+      <c r="H34" s="6" t="n">
         <v>1.2</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="6" t="n">
         <v>1.2</v>
       </c>
       <c r="J34" s="6" t="n">
@@ -2215,7 +1710,7 @@
       <c r="K34" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="L34" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2232,13 +1727,13 @@
       <c r="F35" s="6" t="n">
         <v>-0.4</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="6" t="n">
         <v>1.6</v>
       </c>
-      <c r="H35" s="7" t="n">
+      <c r="H35" s="6" t="n">
         <v>1.2</v>
       </c>
-      <c r="I35" s="7" t="n">
+      <c r="I35" s="6" t="n">
         <v>1.2</v>
       </c>
       <c r="J35" s="6" t="n">
@@ -2248,7 +1743,7 @@
       <c r="K35" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2265,13 +1760,13 @@
       <c r="F36" s="6" t="n">
         <v>-1.1</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="6" t="n">
         <v>1.6</v>
       </c>
-      <c r="H36" s="7" t="n">
+      <c r="H36" s="6" t="n">
         <v>1.2</v>
       </c>
-      <c r="I36" s="7" t="n">
+      <c r="I36" s="6" t="n">
         <v>1.2</v>
       </c>
       <c r="J36" s="6" t="n">
@@ -2281,13 +1776,13 @@
       <c r="K36" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="0" t="s">
+      <c r="L36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P36" s="0" t="s">
+      <c r="P36" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2304,13 +1799,13 @@
       <c r="F37" s="11" t="n">
         <v>1.7</v>
       </c>
-      <c r="G37" s="12" t="n">
+      <c r="G37" s="11" t="n">
         <v>2.6</v>
       </c>
-      <c r="H37" s="12" t="n">
+      <c r="H37" s="11" t="n">
         <v>1.7</v>
       </c>
-      <c r="I37" s="12" t="n">
+      <c r="I37" s="11" t="n">
         <v>2.3</v>
       </c>
       <c r="J37" s="11" t="n">
@@ -2320,15 +1815,15 @@
       <c r="K37" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="O37" s="14" t="n">
+      <c r="L37" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O37" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="P37" s="0" t="n">
-        <f aca="false">(0.4-2.4*O37)/0.4</f>
-        <v>-2</v>
+      <c r="P37" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O37)/$I$77</f>
+        <v>2</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,31 +1839,31 @@
       <c r="F38" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="G38" s="7" t="n">
+      <c r="G38" s="6" t="n">
         <v>2.6</v>
       </c>
-      <c r="H38" s="7" t="n">
+      <c r="H38" s="6" t="n">
         <v>1.7</v>
       </c>
-      <c r="I38" s="7" t="n">
+      <c r="I38" s="6" t="n">
         <v>2.3</v>
       </c>
-      <c r="J38" s="15" t="n">
+      <c r="J38" s="14" t="n">
         <f aca="false">G38+H38*E38+I38*F38</f>
         <v>3.91</v>
       </c>
-      <c r="K38" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="8" t="s">
+      <c r="K38" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O38" s="6" t="n">
         <v>0.8</v>
       </c>
-      <c r="P38" s="0" t="n">
-        <f aca="false">(0.4-2.4*O38)/0.4</f>
-        <v>-3.8</v>
+      <c r="P38" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O38)/$I$77</f>
+        <v>3.8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,31 +1879,31 @@
       <c r="F39" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G39" s="7" t="n">
+      <c r="G39" s="6" t="n">
         <v>1.6</v>
       </c>
-      <c r="H39" s="7" t="n">
+      <c r="H39" s="6" t="n">
         <v>0.9</v>
       </c>
-      <c r="I39" s="7" t="n">
+      <c r="I39" s="6" t="n">
         <v>1.3</v>
       </c>
       <c r="J39" s="11" t="n">
         <f aca="false">G39+H39*E39+I39*F39</f>
         <v>1.02</v>
       </c>
-      <c r="K39" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="8" t="s">
+      <c r="K39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O39" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="P39" s="0" t="n">
-        <f aca="false">(0.4-2.4*O39)/0.4</f>
-        <v>-5</v>
+      <c r="P39" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O39)/$I$77</f>
+        <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,31 +1919,31 @@
       <c r="F40" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="G40" s="7" t="n">
+      <c r="G40" s="6" t="n">
         <v>0.6</v>
       </c>
-      <c r="H40" s="7" t="n">
+      <c r="H40" s="6" t="n">
         <v>1.4</v>
       </c>
-      <c r="I40" s="7" t="n">
+      <c r="I40" s="6" t="n">
         <v>0.7</v>
       </c>
       <c r="J40" s="11" t="n">
         <f aca="false">G40+H40*E40+I40*F40</f>
         <v>2.14</v>
       </c>
-      <c r="K40" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="8" t="s">
+      <c r="K40" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O40" s="6" t="n">
         <v>1.5</v>
       </c>
-      <c r="P40" s="0" t="n">
-        <f aca="false">(0.4-2.4*O40)/0.4</f>
-        <v>-8</v>
+      <c r="P40" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O40)/$I$77</f>
+        <v>8</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2464,31 +1959,31 @@
       <c r="F41" s="6" t="n">
         <v>1.7</v>
       </c>
-      <c r="G41" s="7" t="n">
+      <c r="G41" s="6" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H41" s="7" t="n">
+      <c r="H41" s="6" t="n">
         <v>-0.3</v>
       </c>
-      <c r="I41" s="7" t="n">
+      <c r="I41" s="6" t="n">
         <v>1.3</v>
       </c>
       <c r="J41" s="11" t="n">
         <f aca="false">G41+H41*E41+I41*F41</f>
         <v>1.16</v>
       </c>
-      <c r="K41" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" s="8" t="s">
+      <c r="K41" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O41" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="P41" s="0" t="n">
-        <f aca="false">(0.4-2.4*O41)/0.4</f>
-        <v>-11</v>
+      <c r="P41" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O41)/$I$77</f>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,31 +1999,31 @@
       <c r="F42" s="6" t="n">
         <v>0.7</v>
       </c>
-      <c r="G42" s="7" t="n">
+      <c r="G42" s="6" t="n">
         <v>-1.6</v>
       </c>
-      <c r="H42" s="7" t="n">
+      <c r="H42" s="6" t="n">
         <v>-2.3</v>
       </c>
-      <c r="I42" s="7" t="n">
+      <c r="I42" s="6" t="n">
         <v>-0.6</v>
       </c>
       <c r="J42" s="11" t="n">
         <f aca="false">G42+H42*E42+I42*F42</f>
         <v>-6.62</v>
       </c>
-      <c r="K42" s="7" t="n">
+      <c r="K42" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="O42" s="6" t="n">
         <v>-1.1</v>
       </c>
-      <c r="P42" s="0" t="n">
-        <f aca="false">(0.4-2.4*O42)/0.4</f>
-        <v>7.6</v>
+      <c r="P42" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O42)/$I$77</f>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,31 +2039,31 @@
       <c r="F43" s="6" t="n">
         <v>-1.6</v>
       </c>
-      <c r="G43" s="7" t="n">
+      <c r="G43" s="6" t="n">
         <v>-1.6</v>
       </c>
-      <c r="H43" s="7" t="n">
+      <c r="H43" s="6" t="n">
         <v>-2.3</v>
       </c>
-      <c r="I43" s="7" t="n">
+      <c r="I43" s="6" t="n">
         <v>-0.6</v>
       </c>
       <c r="J43" s="11" t="n">
         <f aca="false">G43+H43*E43+I43*F43</f>
         <v>1.89</v>
       </c>
-      <c r="K43" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L43" s="8" t="s">
+      <c r="K43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>11</v>
       </c>
       <c r="O43" s="6" t="n">
         <v>-0.5</v>
       </c>
-      <c r="P43" s="0" t="n">
-        <f aca="false">(0.4-2.4*O43)/0.4</f>
-        <v>4</v>
+      <c r="P43" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O43)/$I$77</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,34 +2076,34 @@
       <c r="E44" s="6" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F44" s="9" t="n">
+      <c r="F44" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="G44" s="7" t="n">
+      <c r="G44" s="6" t="n">
         <v>-1.6</v>
       </c>
-      <c r="H44" s="7" t="n">
+      <c r="H44" s="6" t="n">
         <v>-2.3</v>
       </c>
-      <c r="I44" s="7" t="n">
+      <c r="I44" s="6" t="n">
         <v>-0.6</v>
       </c>
       <c r="J44" s="11" t="n">
         <f aca="false">G44+H44*E44+I44*F44</f>
         <v>-0.81</v>
       </c>
-      <c r="K44" s="7" t="n">
+      <c r="K44" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O44" s="6" t="n">
         <v>-0.3</v>
       </c>
-      <c r="P44" s="0" t="n">
-        <f aca="false">(0.4-2.4*O44)/0.4</f>
-        <v>2.8</v>
+      <c r="P44" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O44)/$I$77</f>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,31 +2119,31 @@
       <c r="F45" s="6" t="n">
         <v>-0.4</v>
       </c>
-      <c r="G45" s="7" t="n">
+      <c r="G45" s="6" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H45" s="7" t="n">
+      <c r="H45" s="6" t="n">
         <v>-2.6</v>
       </c>
-      <c r="I45" s="7" t="n">
+      <c r="I45" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J45" s="11" t="n">
         <f aca="false">G45+H45*E45+I45*F45</f>
         <v>0.58</v>
       </c>
-      <c r="K45" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" s="8" t="s">
+      <c r="K45" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>11</v>
       </c>
       <c r="O45" s="6" t="n">
         <v>-0.3</v>
       </c>
-      <c r="P45" s="0" t="n">
-        <f aca="false">(0.4-2.4*O45)/0.4</f>
-        <v>2.8</v>
+      <c r="P45" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O45)/$I$77</f>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,31 +2159,31 @@
       <c r="F46" s="6" t="n">
         <v>-1.1</v>
       </c>
-      <c r="G46" s="7" t="n">
+      <c r="G46" s="6" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H46" s="7" t="n">
+      <c r="H46" s="6" t="n">
         <v>-2.6</v>
       </c>
-      <c r="I46" s="7" t="n">
+      <c r="I46" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J46" s="11" t="n">
         <f aca="false">G46+H46*E46+I46*F46</f>
         <v>1.28</v>
       </c>
-      <c r="K46" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" s="8" t="s">
+      <c r="K46" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="O46" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="P46" s="0" t="n">
-        <f aca="false">(0.4-2.4*O46)/0.4</f>
-        <v>1</v>
+      <c r="P46" s="9" t="n">
+        <f aca="false">-($G$77+$H$77*O46)/$I$77</f>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2704,13 +2199,13 @@
       <c r="F47" s="11" t="n">
         <v>1.7</v>
       </c>
-      <c r="G47" s="7" t="n">
+      <c r="G47" s="6" t="n">
         <v>-0.6</v>
       </c>
-      <c r="H47" s="7" t="n">
+      <c r="H47" s="6" t="n">
         <v>-2.6</v>
       </c>
-      <c r="I47" s="7" t="n">
+      <c r="I47" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J47" s="11" t="n">
@@ -2720,7 +2215,7 @@
       <c r="K47" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="L47" s="13" t="s">
+      <c r="L47" s="12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2737,23 +2232,23 @@
       <c r="F48" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="G48" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H48" s="7" t="n">
+      <c r="G48" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H48" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I48" s="7" t="n">
+      <c r="I48" s="6" t="n">
         <v>-0.8</v>
       </c>
-      <c r="J48" s="15" t="n">
+      <c r="J48" s="14" t="n">
         <f aca="false">G48+H48*E48+I48*F48</f>
         <v>-0.81</v>
       </c>
-      <c r="K48" s="16" t="n">
+      <c r="K48" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="L48" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2770,23 +2265,23 @@
       <c r="F49" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G49" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H49" s="7" t="n">
+      <c r="G49" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H49" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I49" s="7" t="n">
+      <c r="I49" s="6" t="n">
         <v>-0.8</v>
       </c>
       <c r="J49" s="11" t="n">
         <f aca="false">G49+H49*E49+I49*F49</f>
         <v>-0.48</v>
       </c>
-      <c r="K49" s="7" t="n">
+      <c r="K49" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="L49" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2803,23 +2298,23 @@
       <c r="F50" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="G50" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H50" s="7" t="n">
+      <c r="G50" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H50" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I50" s="7" t="n">
+      <c r="I50" s="6" t="n">
         <v>-0.8</v>
       </c>
       <c r="J50" s="11" t="n">
         <f aca="false">G50+H50*E50+I50*F50</f>
         <v>-1.86</v>
       </c>
-      <c r="K50" s="7" t="n">
+      <c r="K50" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="L50" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2836,23 +2331,23 @@
       <c r="F51" s="6" t="n">
         <v>1.7</v>
       </c>
-      <c r="G51" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H51" s="7" t="n">
+      <c r="G51" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H51" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I51" s="7" t="n">
+      <c r="I51" s="6" t="n">
         <v>-0.8</v>
       </c>
       <c r="J51" s="11" t="n">
         <f aca="false">G51+H51*E51+I51*F51</f>
         <v>-4.11</v>
       </c>
-      <c r="K51" s="7" t="n">
+      <c r="K51" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2869,23 +2364,23 @@
       <c r="F52" s="6" t="n">
         <v>0.7</v>
       </c>
-      <c r="G52" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H52" s="7" t="n">
+      <c r="G52" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H52" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I52" s="7" t="n">
+      <c r="I52" s="6" t="n">
         <v>-0.8</v>
       </c>
       <c r="J52" s="11" t="n">
         <f aca="false">G52+H52*E52+I52*F52</f>
         <v>-4.36</v>
       </c>
-      <c r="K52" s="7" t="n">
+      <c r="K52" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="L52" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2902,23 +2397,23 @@
       <c r="F53" s="6" t="n">
         <v>-1.6</v>
       </c>
-      <c r="G53" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H53" s="7" t="n">
+      <c r="G53" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H53" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I53" s="7" t="n">
+      <c r="I53" s="6" t="n">
         <v>-0.8</v>
       </c>
       <c r="J53" s="11" t="n">
         <f aca="false">G53+H53*E53+I53*F53</f>
         <v>3.99</v>
       </c>
-      <c r="K53" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" s="8" t="s">
+      <c r="K53" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2932,26 +2427,26 @@
       <c r="E54" s="6" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F54" s="9" t="n">
+      <c r="F54" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="G54" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H54" s="7" t="n">
+      <c r="G54" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H54" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I54" s="7" t="n">
+      <c r="I54" s="6" t="n">
         <v>-0.8</v>
       </c>
       <c r="J54" s="11" t="n">
         <f aca="false">G54+H54*E54+I54*F54</f>
         <v>0.97</v>
       </c>
-      <c r="K54" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" s="8" t="s">
+      <c r="K54" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2968,23 +2463,23 @@
       <c r="F55" s="6" t="n">
         <v>-0.4</v>
       </c>
-      <c r="G55" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H55" s="7" t="n">
+      <c r="G55" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H55" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I55" s="7" t="n">
+      <c r="I55" s="6" t="n">
         <v>-0.8</v>
       </c>
       <c r="J55" s="11" t="n">
         <f aca="false">G55+H55*E55+I55*F55</f>
         <v>1.35</v>
       </c>
-      <c r="K55" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" s="8" t="s">
+      <c r="K55" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3001,23 +2496,23 @@
       <c r="F56" s="6" t="n">
         <v>-1.1</v>
       </c>
-      <c r="G56" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H56" s="7" t="n">
+      <c r="G56" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H56" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I56" s="7" t="n">
+      <c r="I56" s="6" t="n">
         <v>-0.8</v>
       </c>
       <c r="J56" s="11" t="n">
         <f aca="false">G56+H56*E56+I56*F56</f>
         <v>1.91</v>
       </c>
-      <c r="K56" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L56" s="8" t="s">
+      <c r="K56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3034,53 +2529,53 @@
       <c r="F57" s="11" t="n">
         <v>1.7</v>
       </c>
-      <c r="G57" s="7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H57" s="7" t="n">
+      <c r="G57" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H57" s="6" t="n">
         <v>-2.1</v>
       </c>
-      <c r="I57" s="7" t="n">
+      <c r="I57" s="6" t="n">
         <v>-0.8</v>
       </c>
       <c r="J57" s="11" t="n">
         <f aca="false">G57+H57*E57+I57*F57</f>
         <v>-0.96</v>
       </c>
-      <c r="K57" s="12" t="n">
+      <c r="K57" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="L57" s="13" t="s">
+      <c r="L57" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="14" t="n">
+      <c r="C58" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="F58" s="14" t="n">
+      <c r="F58" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="G58" s="18" t="n">
+      <c r="G58" s="13" t="n">
         <v>1.4</v>
       </c>
-      <c r="H58" s="18" t="n">
+      <c r="H58" s="13" t="n">
         <v>-1.6</v>
       </c>
-      <c r="I58" s="18" t="n">
+      <c r="I58" s="13" t="n">
         <v>-0.6</v>
       </c>
-      <c r="J58" s="19" t="n">
+      <c r="J58" s="17" t="n">
         <f aca="false">G58+H58*E58+I58*F58</f>
         <v>0.48</v>
       </c>
-      <c r="K58" s="18" t="n">
+      <c r="K58" s="13" t="n">
         <v>1</v>
       </c>
       <c r="L58" s="4" t="s">
@@ -3100,23 +2595,23 @@
       <c r="F59" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G59" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H59" s="18" t="n">
+      <c r="G59" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H59" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I59" s="18" t="n">
+      <c r="I59" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J59" s="11" t="n">
         <f aca="false">G59+H59*E59+I59*F59</f>
         <v>-1.92</v>
       </c>
-      <c r="K59" s="7" t="n">
+      <c r="K59" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="L59" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3133,23 +2628,23 @@
       <c r="F60" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="G60" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H60" s="18" t="n">
+      <c r="G60" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H60" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I60" s="18" t="n">
+      <c r="I60" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J60" s="11" t="n">
         <f aca="false">G60+H60*E60+I60*F60</f>
         <v>-1.92</v>
       </c>
-      <c r="K60" s="7" t="n">
+      <c r="K60" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="L60" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3166,23 +2661,23 @@
       <c r="F61" s="6" t="n">
         <v>1.7</v>
       </c>
-      <c r="G61" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H61" s="18" t="n">
+      <c r="G61" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H61" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I61" s="18" t="n">
+      <c r="I61" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J61" s="11" t="n">
         <f aca="false">G61+H61*E61+I61*F61</f>
         <v>-2.52</v>
       </c>
-      <c r="K61" s="7" t="n">
+      <c r="K61" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3199,23 +2694,23 @@
       <c r="F62" s="6" t="n">
         <v>0.7</v>
       </c>
-      <c r="G62" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H62" s="18" t="n">
+      <c r="G62" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H62" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I62" s="18" t="n">
+      <c r="I62" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J62" s="11" t="n">
         <f aca="false">G62+H62*E62+I62*F62</f>
         <v>-4.12</v>
       </c>
-      <c r="K62" s="7" t="n">
+      <c r="K62" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L62" s="8" t="s">
+      <c r="L62" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3232,23 +2727,23 @@
       <c r="F63" s="6" t="n">
         <v>-1.6</v>
       </c>
-      <c r="G63" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H63" s="18" t="n">
+      <c r="G63" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H63" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I63" s="18" t="n">
+      <c r="I63" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J63" s="11" t="n">
         <f aca="false">G63+H63*E63+I63*F63</f>
         <v>2.4</v>
       </c>
-      <c r="K63" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" s="8" t="s">
+      <c r="K63" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3262,26 +2757,26 @@
       <c r="E64" s="6" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F64" s="9" t="n">
+      <c r="F64" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="G64" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H64" s="18" t="n">
+      <c r="G64" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H64" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I64" s="18" t="n">
+      <c r="I64" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J64" s="11" t="n">
         <f aca="false">G64+H64*E64+I64*F64</f>
         <v>1.84</v>
       </c>
-      <c r="K64" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" s="8" t="s">
+      <c r="K64" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3298,23 +2793,23 @@
       <c r="F65" s="6" t="n">
         <v>-0.4</v>
       </c>
-      <c r="G65" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H65" s="18" t="n">
+      <c r="G65" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H65" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I65" s="18" t="n">
+      <c r="I65" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J65" s="11" t="n">
         <f aca="false">G65+H65*E65+I65*F65</f>
         <v>0.96</v>
       </c>
-      <c r="K65" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L65" s="8" t="s">
+      <c r="K65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3331,23 +2826,23 @@
       <c r="F66" s="6" t="n">
         <v>-1.1</v>
       </c>
-      <c r="G66" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H66" s="18" t="n">
+      <c r="G66" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H66" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I66" s="18" t="n">
+      <c r="I66" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J66" s="11" t="n">
         <f aca="false">G66+H66*E66+I66*F66</f>
         <v>0.68</v>
       </c>
-      <c r="K66" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L66" s="8" t="s">
+      <c r="K66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3364,53 +2859,53 @@
       <c r="F67" s="11" t="n">
         <v>1.7</v>
       </c>
-      <c r="G67" s="20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H67" s="20" t="n">
+      <c r="G67" s="18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H67" s="18" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I67" s="20" t="n">
+      <c r="I67" s="18" t="n">
         <v>0.4</v>
       </c>
       <c r="J67" s="11" t="n">
         <f aca="false">G67+H67*E67+I67*F67</f>
         <v>1.08</v>
       </c>
-      <c r="K67" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L67" s="13" t="s">
+      <c r="K67" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="14" t="n">
+      <c r="C68" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13" t="n">
         <v>0.5</v>
       </c>
-      <c r="F68" s="14" t="n">
+      <c r="F68" s="13" t="n">
         <v>0.2</v>
       </c>
-      <c r="G68" s="20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H68" s="20" t="n">
+      <c r="G68" s="18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H68" s="18" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I68" s="20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J68" s="19" t="n">
+      <c r="I68" s="18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J68" s="17" t="n">
         <f aca="false">G68+H68*E68+I68*F68</f>
         <v>-0.72</v>
       </c>
-      <c r="K68" s="18" t="n">
+      <c r="K68" s="13" t="n">
         <v>0</v>
       </c>
       <c r="L68" s="4" t="s">
@@ -3430,23 +2925,23 @@
       <c r="F69" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="G69" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H69" s="18" t="n">
+      <c r="G69" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H69" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I69" s="18" t="n">
+      <c r="I69" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J69" s="11" t="n">
         <f aca="false">G69+H69*E69+I69*F69</f>
         <v>-1.92</v>
       </c>
-      <c r="K69" s="7" t="n">
+      <c r="K69" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L69" s="8" t="s">
+      <c r="L69" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3463,23 +2958,23 @@
       <c r="F70" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="G70" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H70" s="18" t="n">
+      <c r="G70" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H70" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I70" s="18" t="n">
+      <c r="I70" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J70" s="11" t="n">
         <f aca="false">G70+H70*E70+I70*F70</f>
         <v>-1.92</v>
       </c>
-      <c r="K70" s="7" t="n">
+      <c r="K70" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L70" s="8" t="s">
+      <c r="L70" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3496,23 +2991,23 @@
       <c r="F71" s="6" t="n">
         <v>1.7</v>
       </c>
-      <c r="G71" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H71" s="18" t="n">
+      <c r="G71" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H71" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I71" s="18" t="n">
+      <c r="I71" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J71" s="11" t="n">
         <f aca="false">G71+H71*E71+I71*F71</f>
         <v>-2.52</v>
       </c>
-      <c r="K71" s="7" t="n">
+      <c r="K71" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="L71" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3529,23 +3024,23 @@
       <c r="F72" s="6" t="n">
         <v>0.7</v>
       </c>
-      <c r="G72" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H72" s="18" t="n">
+      <c r="G72" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H72" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I72" s="18" t="n">
+      <c r="I72" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J72" s="11" t="n">
         <f aca="false">G72+H72*E72+I72*F72</f>
         <v>-4.12</v>
       </c>
-      <c r="K72" s="7" t="n">
+      <c r="K72" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="L72" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3562,23 +3057,23 @@
       <c r="F73" s="6" t="n">
         <v>-1.6</v>
       </c>
-      <c r="G73" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H73" s="18" t="n">
+      <c r="G73" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H73" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I73" s="18" t="n">
+      <c r="I73" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J73" s="11" t="n">
         <f aca="false">G73+H73*E73+I73*F73</f>
         <v>2.4</v>
       </c>
-      <c r="K73" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" s="8" t="s">
+      <c r="K73" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3592,26 +3087,26 @@
       <c r="E74" s="6" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F74" s="9" t="n">
+      <c r="F74" s="8" t="n">
         <v>0.6</v>
       </c>
-      <c r="G74" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H74" s="18" t="n">
+      <c r="G74" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H74" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I74" s="18" t="n">
+      <c r="I74" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J74" s="11" t="n">
         <f aca="false">G74+H74*E74+I74*F74</f>
         <v>1.84</v>
       </c>
-      <c r="K74" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" s="8" t="s">
+      <c r="K74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3628,23 +3123,23 @@
       <c r="F75" s="6" t="n">
         <v>-0.4</v>
       </c>
-      <c r="G75" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H75" s="18" t="n">
+      <c r="G75" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H75" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I75" s="18" t="n">
+      <c r="I75" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J75" s="11" t="n">
         <f aca="false">G75+H75*E75+I75*F75</f>
         <v>0.96</v>
       </c>
-      <c r="K75" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L75" s="8" t="s">
+      <c r="K75" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3661,23 +3156,23 @@
       <c r="F76" s="6" t="n">
         <v>-1.1</v>
       </c>
-      <c r="G76" s="18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H76" s="18" t="n">
+      <c r="G76" s="13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H76" s="13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I76" s="18" t="n">
+      <c r="I76" s="13" t="n">
         <v>0.4</v>
       </c>
       <c r="J76" s="11" t="n">
         <f aca="false">G76+H76*E76+I76*F76</f>
         <v>0.68</v>
       </c>
-      <c r="K76" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L76" s="8" t="s">
+      <c r="K76" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3694,23 +3189,23 @@
       <c r="F77" s="11" t="n">
         <v>1.7</v>
       </c>
-      <c r="G77" s="20" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H77" s="20" t="n">
+      <c r="G77" s="18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H77" s="18" t="n">
         <v>-2.4</v>
       </c>
-      <c r="I77" s="20" t="n">
+      <c r="I77" s="18" t="n">
         <v>0.4</v>
       </c>
       <c r="J77" s="11" t="n">
         <f aca="false">G77+H77*E77+I77*F77</f>
         <v>1.08</v>
       </c>
-      <c r="K77" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" s="13" t="s">
+      <c r="K77" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" s="12" t="s">
         <v>11</v>
       </c>
     </row>

--- a/lab3/lab3.xlsx
+++ b/lab3/lab3.xlsx
@@ -67,7 +67,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -89,12 +89,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -392,45 +386,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>Заглавие диаграммы</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:scatterChart>
@@ -742,6 +702,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -927,11 +888,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75588452"/>
-        <c:axId val="78362509"/>
+        <c:axId val="46902865"/>
+        <c:axId val="26241760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75588452"/>
+        <c:axId val="46902865"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,12 +934,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78362509"/>
+        <c:crossAx val="26241760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78362509"/>
+        <c:axId val="26241760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +981,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75588452"/>
+        <c:crossAx val="46902865"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1050,45 +1011,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow"/>
-              </a:rPr>
-              <a:t>Заглавие диаграммы</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:scatterChart>
@@ -1215,11 +1142,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42612219"/>
-        <c:axId val="21384233"/>
+        <c:axId val="73767411"/>
+        <c:axId val="25423518"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42612219"/>
+        <c:axId val="73767411"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,12 +1188,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21384233"/>
+        <c:crossAx val="25423518"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21384233"/>
+        <c:axId val="25423518"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1235,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42612219"/>
+        <c:crossAx val="73767411"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1347,9 +1274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>454320</xdr:colOff>
+      <xdr:colOff>453960</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1357,8 +1284,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12885120" y="2251080"/>
-        <a:ext cx="6957360" cy="4091040"/>
+        <a:off x="12893040" y="2251080"/>
+        <a:ext cx="6961320" cy="4090680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1377,9 +1304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>690840</xdr:colOff>
+      <xdr:colOff>690480</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1387,8 +1314,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20653560" y="4179240"/>
-        <a:ext cx="5548320" cy="2732760"/>
+        <a:off x="20666160" y="4179240"/>
+        <a:ext cx="5551200" cy="2732400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1407,9 +1334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
+      <xdr:colOff>106560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1422,8 +1349,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2253960" y="117000"/>
-          <a:ext cx="4995720" cy="3534480"/>
+          <a:off x="2255040" y="117000"/>
+          <a:ext cx="4998960" cy="3534120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,10 +1373,10 @@
   <dimension ref="C27:P77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="Y12" activeCellId="0" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
